--- a/storage/exports/奖励佣金导入表样例.xlsx
+++ b/storage/exports/奖励佣金导入表样例.xlsx
@@ -543,7 +543,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="9">
-        <v>11023415789</v>
+        <v>1102341578</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>8</v>
@@ -563,7 +563,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="9">
-        <v>11023415789</v>
+        <v>1102341578</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>8</v>
@@ -584,7 +584,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="9">
-        <v>11023415789</v>
+        <v>1102341578</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>8</v>
@@ -604,7 +604,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="9">
-        <v>11023415789</v>
+        <v>1102341578</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>8</v>
@@ -624,7 +624,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="9">
-        <v>11023415789</v>
+        <v>1102341578</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>8</v>
@@ -644,7 +644,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="9">
-        <v>11023415789</v>
+        <v>1102341578</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>8</v>
@@ -664,7 +664,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="9">
-        <v>11023415789</v>
+        <v>1102341578</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>8</v>
@@ -684,7 +684,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="9">
-        <v>11023415789</v>
+        <v>1102341578</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>8</v>
@@ -704,7 +704,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="9">
-        <v>11023415789</v>
+        <v>1102341578</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>8</v>
@@ -724,7 +724,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="9">
-        <v>11023415789</v>
+        <v>1102341578</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>8</v>
@@ -744,7 +744,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="9">
-        <v>11023415789</v>
+        <v>1102341578</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>8</v>

--- a/storage/exports/奖励佣金导入表样例.xlsx
+++ b/storage/exports/奖励佣金导入表样例.xlsx
@@ -543,7 +543,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="9">
-        <v>1102341578</v>
+        <v>11023415789</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>8</v>
@@ -563,7 +563,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="9">
-        <v>1102341578</v>
+        <v>11023415789</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>8</v>
@@ -584,7 +584,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="9">
-        <v>1102341578</v>
+        <v>11023415789</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>8</v>
@@ -604,7 +604,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="9">
-        <v>1102341578</v>
+        <v>11023415789</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>8</v>
@@ -624,7 +624,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="9">
-        <v>1102341578</v>
+        <v>11023415789</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>8</v>
@@ -644,7 +644,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="9">
-        <v>1102341578</v>
+        <v>11023415789</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>8</v>
@@ -664,7 +664,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="9">
-        <v>1102341578</v>
+        <v>11023415789</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>8</v>
@@ -684,7 +684,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="9">
-        <v>1102341578</v>
+        <v>11023415789</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>8</v>
@@ -704,7 +704,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="9">
-        <v>1102341578</v>
+        <v>11023415789</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>8</v>
@@ -724,7 +724,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="9">
-        <v>1102341578</v>
+        <v>11023415789</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>8</v>
@@ -744,7 +744,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="9">
-        <v>1102341578</v>
+        <v>11023415789</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>8</v>
